--- a/data/trans_orig/P16B07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B07-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3D090A4-5E27-40B9-96F0-2FCBD5B150BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CA0BE61-D377-464B-B9DE-CE38DE912FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D60926A7-AE0C-48E1-BF39-1A533CBFB2E7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{81E93507-C133-4231-AF9F-5616E981E7D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -85,13 +85,13 @@
     <t>95,0%</t>
   </si>
   <si>
-    <t>77,63%</t>
+    <t>74,62%</t>
   </si>
   <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>76,81%</t>
+    <t>83,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>5,0%</t>
   </si>
   <si>
-    <t>22,37%</t>
+    <t>25,38%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>23,19%</t>
+    <t>16,88%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -148,13 +148,13 @@
     <t>93,54%</t>
   </si>
   <si>
-    <t>73,49%</t>
+    <t>73,53%</t>
   </si>
   <si>
     <t>94,82%</t>
   </si>
   <si>
-    <t>73,48%</t>
+    <t>72,94%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -163,13 +163,13 @@
     <t>6,46%</t>
   </si>
   <si>
-    <t>26,51%</t>
+    <t>26,47%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>26,52%</t>
+    <t>27,06%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -196,13 +196,13 @@
     <t>95,78%</t>
   </si>
   <si>
-    <t>78,19%</t>
+    <t>79,26%</t>
   </si>
   <si>
     <t>96,86%</t>
   </si>
   <si>
-    <t>81,65%</t>
+    <t>87,16%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -211,13 +211,13 @@
     <t>4,22%</t>
   </si>
   <si>
-    <t>21,81%</t>
+    <t>20,74%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>18,35%</t>
+    <t>12,84%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -262,198 +262,198 @@
     <t>93,77%</t>
   </si>
   <si>
-    <t>78,53%</t>
+    <t>79,36%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de antidepresivos recetados en 2012 (Tasa respuesta: 5,75%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
     <t>85,38%</t>
   </si>
   <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de antidepresivos recetados en 2012 (Tasa respuesta: 5,75%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
     <t>92,68%</t>
   </si>
   <si>
@@ -490,13 +490,13 @@
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,02%</t>
+    <t>97,45%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,23%</t>
+    <t>98,28%</t>
   </si>
   <si>
     <t>2,04%</t>
@@ -505,13 +505,13 @@
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,98%</t>
+    <t>2,55%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,77%</t>
+    <t>1,72%</t>
   </si>
   <si>
     <t>Porcentaje de antidepresivos recetados en 2015 (Tasa respuesta: 4,51%)</t>
@@ -532,25 +532,25 @@
     <t>97,06%</t>
   </si>
   <si>
-    <t>87,85%</t>
+    <t>85,39%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>89,94%</t>
+    <t>87,53%</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>12,15%</t>
+    <t>14,61%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>10,06%</t>
+    <t>12,47%</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -580,25 +580,25 @@
     <t>96,01%</t>
   </si>
   <si>
-    <t>79,33%</t>
+    <t>78,24%</t>
   </si>
   <si>
     <t>96,44%</t>
   </si>
   <si>
-    <t>81,82%</t>
+    <t>81,53%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>20,67%</t>
+    <t>21,76%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>18,18%</t>
+    <t>18,47%</t>
   </si>
   <si>
     <t>97,77%</t>
@@ -610,25 +610,25 @@
     <t>99,23%</t>
   </si>
   <si>
-    <t>97,5%</t>
+    <t>97,29%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>97,9%</t>
+    <t>97,91%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>2,5%</t>
+    <t>2,71%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>2,09%</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D06D52-A0FF-449C-8D55-F303FAF13FF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BFAC9E-AFDA-4116-9FA8-1E18FD09D475}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2571,7 +2571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3F1B6F-D506-424F-A4B6-3DD3132D6498}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0092B6BF-366F-494D-BD7D-EAFEF61679D2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4084,7 +4084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34787440-7484-4875-B7F9-DC231CE1E5BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0E1C6F-D1BE-418B-836B-16AC5E4E3325}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B07-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CA0BE61-D377-464B-B9DE-CE38DE912FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54C16BF5-95E0-4F1C-A00D-3172002ED3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{81E93507-C133-4231-AF9F-5616E981E7D3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2268C832-E77D-4C96-A6FC-3B52580D38B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,13 +85,13 @@
     <t>95,0%</t>
   </si>
   <si>
-    <t>74,62%</t>
+    <t>73,05%</t>
   </si>
   <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>83,12%</t>
+    <t>84,58%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>5,0%</t>
   </si>
   <si>
-    <t>25,38%</t>
+    <t>26,95%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>16,88%</t>
+    <t>15,42%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -148,13 +148,13 @@
     <t>93,54%</t>
   </si>
   <si>
-    <t>73,53%</t>
+    <t>72,69%</t>
   </si>
   <si>
     <t>94,82%</t>
   </si>
   <si>
-    <t>72,94%</t>
+    <t>68,5%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -163,13 +163,13 @@
     <t>6,46%</t>
   </si>
   <si>
-    <t>26,47%</t>
+    <t>27,31%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>27,06%</t>
+    <t>31,5%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -196,13 +196,13 @@
     <t>95,78%</t>
   </si>
   <si>
-    <t>79,26%</t>
+    <t>78,42%</t>
   </si>
   <si>
     <t>96,86%</t>
   </si>
   <si>
-    <t>87,16%</t>
+    <t>86,97%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -211,13 +211,13 @@
     <t>4,22%</t>
   </si>
   <si>
-    <t>20,74%</t>
+    <t>21,58%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>12,84%</t>
+    <t>13,03%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -262,91 +262,91 @@
     <t>93,77%</t>
   </si>
   <si>
-    <t>79,36%</t>
+    <t>80,53%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>83,59%</t>
+    <t>84,44%</t>
   </si>
   <si>
     <t>94,71%</t>
   </si>
   <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>20,64%</t>
+    <t>19,47%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>16,41%</t>
+    <t>15,56%</t>
   </si>
   <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
   </si>
   <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>90,65%</t>
+    <t>91,34%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>9,35%</t>
+    <t>8,66%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -388,13 +388,13 @@
     <t>98,06%</t>
   </si>
   <si>
-    <t>89,54%</t>
+    <t>90,33%</t>
   </si>
   <si>
     <t>98,43%</t>
   </si>
   <si>
-    <t>92,2%</t>
+    <t>92,18%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -403,13 +403,13 @@
     <t>1,94%</t>
   </si>
   <si>
-    <t>10,46%</t>
+    <t>9,67%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>7,8%</t>
+    <t>7,82%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -436,10 +436,10 @@
     <t>95,56%</t>
   </si>
   <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -448,10 +448,10 @@
     <t>4,44%</t>
   </si>
   <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -490,13 +490,13 @@
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,45%</t>
+    <t>97,33%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,28%</t>
+    <t>97,79%</t>
   </si>
   <si>
     <t>2,04%</t>
@@ -505,16 +505,16 @@
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,55%</t>
+    <t>2,67%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>Porcentaje de antidepresivos recetados en 2015 (Tasa respuesta: 4,51%)</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>Porcentaje de antidepresivos recetados en 2016 (Tasa respuesta: 4,51%)</t>
   </si>
   <si>
     <t>92,07%</t>
@@ -532,25 +532,25 @@
     <t>97,06%</t>
   </si>
   <si>
-    <t>85,39%</t>
+    <t>84,07%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>87,53%</t>
+    <t>88,87%</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>14,61%</t>
+    <t>15,93%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>12,47%</t>
+    <t>11,13%</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -580,25 +580,25 @@
     <t>96,01%</t>
   </si>
   <si>
-    <t>78,24%</t>
+    <t>82,47%</t>
   </si>
   <si>
     <t>96,44%</t>
   </si>
   <si>
-    <t>81,53%</t>
+    <t>84,24%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>21,76%</t>
+    <t>17,53%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>18,47%</t>
+    <t>15,76%</t>
   </si>
   <si>
     <t>97,77%</t>
@@ -610,25 +610,25 @@
     <t>99,23%</t>
   </si>
   <si>
-    <t>97,29%</t>
+    <t>97,28%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>97,91%</t>
+    <t>98,07%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>2,72%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>2,09%</t>
+    <t>1,93%</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BFAC9E-AFDA-4116-9FA8-1E18FD09D475}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297CD59C-2255-4404-9DEE-566651059D80}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2571,7 +2571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0092B6BF-366F-494D-BD7D-EAFEF61679D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4C9BB5-2B6E-4A21-8E8E-8C3F946F728A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4084,7 +4084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0E1C6F-D1BE-418B-836B-16AC5E4E3325}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7E1DC9-5EC5-4737-86BB-A669588070D0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B07-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54C16BF5-95E0-4F1C-A00D-3172002ED3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B743C20-811D-47AE-A923-AA854D1C20A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2268C832-E77D-4C96-A6FC-3B52580D38B9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E09E330E-5186-46FF-A103-0505FB4626C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>95,0%</t>
   </si>
   <si>
-    <t>73,05%</t>
+    <t>77,63%</t>
   </si>
   <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>84,58%</t>
+    <t>76,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>5,0%</t>
   </si>
   <si>
-    <t>26,95%</t>
+    <t>22,37%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>15,42%</t>
+    <t>23,19%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -148,13 +148,13 @@
     <t>93,54%</t>
   </si>
   <si>
-    <t>72,69%</t>
+    <t>73,49%</t>
   </si>
   <si>
     <t>94,82%</t>
   </si>
   <si>
-    <t>68,5%</t>
+    <t>73,48%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -163,13 +163,13 @@
     <t>6,46%</t>
   </si>
   <si>
-    <t>27,31%</t>
+    <t>26,51%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>31,5%</t>
+    <t>26,52%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -196,13 +196,13 @@
     <t>95,78%</t>
   </si>
   <si>
-    <t>78,42%</t>
+    <t>78,19%</t>
   </si>
   <si>
     <t>96,86%</t>
   </si>
   <si>
-    <t>86,97%</t>
+    <t>81,65%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -211,13 +211,13 @@
     <t>4,22%</t>
   </si>
   <si>
-    <t>21,58%</t>
+    <t>21,81%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>13,03%</t>
+    <t>18,35%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -262,91 +262,91 @@
     <t>93,77%</t>
   </si>
   <si>
-    <t>80,53%</t>
+    <t>78,53%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>84,44%</t>
+    <t>85,38%</t>
   </si>
   <si>
     <t>94,71%</t>
   </si>
   <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>19,47%</t>
+    <t>21,47%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>15,56%</t>
+    <t>14,62%</t>
   </si>
   <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
   </si>
   <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>91,34%</t>
+    <t>91,12%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>8,66%</t>
+    <t>8,88%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -388,13 +388,13 @@
     <t>98,06%</t>
   </si>
   <si>
-    <t>90,33%</t>
+    <t>90,35%</t>
   </si>
   <si>
     <t>98,43%</t>
   </si>
   <si>
-    <t>92,18%</t>
+    <t>92,11%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -403,13 +403,13 @@
     <t>1,94%</t>
   </si>
   <si>
-    <t>9,67%</t>
+    <t>9,65%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>7,82%</t>
+    <t>7,89%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -436,10 +436,10 @@
     <t>95,56%</t>
   </si>
   <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -448,10 +448,10 @@
     <t>4,44%</t>
   </si>
   <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -490,13 +490,13 @@
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,33%</t>
+    <t>97,02%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>97,79%</t>
+    <t>98,23%</t>
   </si>
   <si>
     <t>2,04%</t>
@@ -505,13 +505,13 @@
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,67%</t>
+    <t>2,98%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>2,21%</t>
+    <t>1,77%</t>
   </si>
   <si>
     <t>Porcentaje de antidepresivos recetados en 2016 (Tasa respuesta: 4,51%)</t>
@@ -532,25 +532,25 @@
     <t>97,06%</t>
   </si>
   <si>
-    <t>84,07%</t>
+    <t>87,85%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>88,87%</t>
+    <t>89,94%</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>15,93%</t>
+    <t>12,15%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>11,13%</t>
+    <t>10,06%</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -580,25 +580,25 @@
     <t>96,01%</t>
   </si>
   <si>
-    <t>82,47%</t>
+    <t>79,33%</t>
   </si>
   <si>
     <t>96,44%</t>
   </si>
   <si>
-    <t>84,24%</t>
+    <t>81,82%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>17,53%</t>
+    <t>20,67%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>15,76%</t>
+    <t>18,18%</t>
   </si>
   <si>
     <t>97,77%</t>
@@ -610,25 +610,25 @@
     <t>99,23%</t>
   </si>
   <si>
-    <t>97,28%</t>
+    <t>97,5%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>98,07%</t>
+    <t>97,9%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>2,72%</t>
+    <t>2,5%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>2,1%</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297CD59C-2255-4404-9DEE-566651059D80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89CDB0A-6B26-4F7A-A408-66E1E1264F4E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2571,7 +2571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4C9BB5-2B6E-4A21-8E8E-8C3F946F728A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50B2915-B1FA-4333-B9D0-E87FDFD6A66A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4084,7 +4084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7E1DC9-5EC5-4737-86BB-A669588070D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2323D2E-298B-4008-9037-02344F4B0751}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B07-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B743C20-811D-47AE-A923-AA854D1C20A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B5B6D8C-81FF-4939-9C39-3A4BAFAF4380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E09E330E-5186-46FF-A103-0505FB4626C0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{71A52222-5D84-41B7-954A-420E4955811D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="200">
   <si>
     <t>Porcentaje de antidepresivos recetados en 2007 (Tasa respuesta: 4,25%)</t>
   </si>
@@ -355,7 +355,28 @@
     <t>Porcentaje de antidepresivos recetados en 2012 (Tasa respuesta: 5,75%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -382,34 +403,22 @@
     <t>4,55%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -1040,7 +1049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89CDB0A-6B26-4F7A-A408-66E1E1264F4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278E14DD-5C80-4F27-9BE2-06BB3699452C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2571,7 +2580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50B2915-B1FA-4333-B9D0-E87FDFD6A66A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AE2587-12A6-466C-A351-EA0DBF318440}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2689,43 +2698,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9015</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="I4" s="7">
+        <v>19925</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="N4" s="7">
+        <v>28940</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,41 +2751,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1176</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1176</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,43 +2800,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9015</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="I6" s="7">
+        <v>21101</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="N6" s="7">
+        <v>30116</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,7 +2862,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2850,7 +2877,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2865,7 +2892,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2889,7 +2916,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2904,7 +2931,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2919,7 +2946,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,7 +3047,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3074,7 +3101,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,49 +3163,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>14265</v>
+        <v>5251</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>59369</v>
+        <v>39444</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="N13" s="7">
-        <v>73634</v>
+        <v>44695</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,37 +3226,37 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1176</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>1176</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,10 +3265,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D15" s="7">
-        <v>14265</v>
+        <v>5251</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3253,10 +3280,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I15" s="7">
-        <v>60545</v>
+        <v>39444</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3268,10 +3295,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="N15" s="7">
-        <v>74810</v>
+        <v>44695</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3300,7 +3327,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3315,7 +3342,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3330,7 +3357,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3354,7 +3381,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3369,7 +3396,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3384,7 +3411,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3467,10 +3494,10 @@
         <v>23390</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -3485,7 +3512,7 @@
         <v>53</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3509,7 +3536,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3518,13 +3545,13 @@
         <v>1087</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3539,7 +3566,7 @@
         <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,7 +3637,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -3625,7 +3652,7 @@
         <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -3640,7 +3667,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -3664,7 +3691,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3679,7 +3706,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3694,7 +3721,7 @@
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,7 +3807,7 @@
         <v>11</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -3795,7 +3822,7 @@
         <v>11</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -3834,7 +3861,7 @@
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3849,7 +3876,7 @@
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,7 +3947,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -3932,10 +3959,10 @@
         <v>294341</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>11</v>
@@ -3947,10 +3974,10 @@
         <v>399295</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>11</v>
@@ -3974,7 +4001,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3983,13 +4010,13 @@
         <v>2264</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -3998,13 +4025,13 @@
         <v>2264</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,7 +4111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2323D2E-298B-4008-9037-02344F4B0751}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C23BF7-DE6A-4A9D-B3AE-22785A1725C6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4101,7 +4128,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4211,7 +4238,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -4226,7 +4253,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4241,7 +4268,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4265,7 +4292,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4280,7 +4307,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4295,7 +4322,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,10 +4405,10 @@
         <v>32481</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -4393,10 +4420,10 @@
         <v>39939</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -4429,13 +4456,13 @@
         <v>985</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4444,13 +4471,13 @@
         <v>985</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,7 +4563,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -4551,7 +4578,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4590,7 +4617,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4605,7 +4632,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,7 +4718,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4745,7 +4772,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4846,7 +4873,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -4861,7 +4888,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4900,7 +4927,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4915,7 +4942,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,10 +5025,10 @@
         <v>22274</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -5013,10 +5040,10 @@
         <v>25041</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -5049,13 +5076,13 @@
         <v>925</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5064,13 +5091,13 @@
         <v>925</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,7 +5183,7 @@
         <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -5171,7 +5198,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -5210,7 +5237,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5225,7 +5252,7 @@
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,7 +5323,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -5326,7 +5353,7 @@
         <v>11</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5350,7 +5377,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5380,7 +5407,7 @@
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,10 +5490,10 @@
         <v>246125</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>11</v>
@@ -5478,10 +5505,10 @@
         <v>319164</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>11</v>
@@ -5514,13 +5541,13 @@
         <v>1909</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -5529,13 +5556,13 @@
         <v>1909</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
